--- a/4. results/Acceptability/Acceptability - dataset_CINeMA1-1.xlsx
+++ b/4. results/Acceptability/Acceptability - dataset_CINeMA1-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -26,7 +26,10 @@
     <t>n</t>
   </si>
   <si>
-    <t>baseline</t>
+    <t>year</t>
+  </si>
+  <si>
+    <t>sponsor_company</t>
   </si>
   <si>
     <t>1</t>
@@ -59,6 +62,12 @@
     <t>10</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>Emilsson 2011</t>
   </si>
   <si>
@@ -74,6 +83,9 @@
     <t>Hanssen 2023</t>
   </si>
   <si>
+    <t>Dittner 2014</t>
+  </si>
+  <si>
     <t>CBT + TAU</t>
   </si>
   <si>
@@ -87,6 +99,27 @@
   </si>
   <si>
     <t>GMT + TAU</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>FIPE‐HCPA</t>
+  </si>
+  <si>
+    <t>JSPS KAKENHI</t>
   </si>
 </sst>
 </file>
@@ -154,16 +187,19 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
         <v>7.0</v>
@@ -171,19 +207,22 @@
       <c r="E2" t="n">
         <v>27.0</v>
       </c>
-      <c r="F2" t="n">
-        <v>28.72</v>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
         <v>6.0</v>
@@ -191,19 +230,22 @@
       <c r="E3" t="n">
         <v>27.0</v>
       </c>
-      <c r="F3" t="n">
-        <v>26.29</v>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
         <v>9.0</v>
@@ -211,19 +253,22 @@
       <c r="E4" t="n">
         <v>60.0</v>
       </c>
-      <c r="F4" t="n">
-        <v>28.7</v>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
@@ -231,19 +276,22 @@
       <c r="E5" t="n">
         <v>60.0</v>
       </c>
-      <c r="F5" t="n">
-        <v>29.0</v>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
         <v>3.0</v>
@@ -251,19 +299,22 @@
       <c r="E6" t="n">
         <v>16.0</v>
       </c>
-      <c r="F6" t="n">
-        <v>35.63</v>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
         <v>1.0</v>
@@ -271,19 +322,22 @@
       <c r="E7" t="n">
         <v>15.0</v>
       </c>
-      <c r="F7" t="n">
-        <v>36.2</v>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D8" t="n">
         <v>1.0</v>
@@ -291,19 +345,22 @@
       <c r="E8" t="n">
         <v>24.0</v>
       </c>
-      <c r="F8" t="n">
-        <v>80.0</v>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
         <v>6.0</v>
@@ -311,19 +368,22 @@
       <c r="E9" t="n">
         <v>24.0</v>
       </c>
-      <c r="F9" t="n">
-        <v>77.38</v>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D10" t="n">
         <v>9.0</v>
@@ -331,19 +391,22 @@
       <c r="E10" t="n">
         <v>41.0</v>
       </c>
-      <c r="F10" t="e">
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
@@ -351,7 +414,56 @@
       <c r="E11" t="n">
         <v>40.0</v>
       </c>
-      <c r="F11" t="e">
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="e">
         <v>#N/A</v>
       </c>
     </row>
